--- a/Documentação/Planilhas/Layouts/Planilhao_LN.xlsx
+++ b/Documentação/Planilhas/Layouts/Planilhao_LN.xlsx
@@ -19,21 +19,22 @@
     <sheet name="aux_planilhao_periodo_cmd" sheetId="120" r:id="rId10"/>
     <sheet name="aux_planilhao_produto" sheetId="127" r:id="rId11"/>
     <sheet name="aux_planilhao_rentab_prod" sheetId="126" r:id="rId12"/>
-    <sheet name="ods_tb_planilhao" sheetId="112" r:id="rId13"/>
-    <sheet name="ods_tb_planilhao_atacado" sheetId="115" r:id="rId14"/>
-    <sheet name="stg_planilhao_pricing" sheetId="118" r:id="rId15"/>
-    <sheet name="stg_planilhao_ruptura" sheetId="119" r:id="rId16"/>
-    <sheet name="stg_planilhao_rupturas" sheetId="128" r:id="rId17"/>
-    <sheet name="stg_sige_preco_tabela" sheetId="107" r:id="rId18"/>
-    <sheet name="stg_tb_planilhao" sheetId="111" r:id="rId19"/>
-    <sheet name="stg_tb_planilhao_atacado" sheetId="114" r:id="rId20"/>
+    <sheet name="ods_planilhao_ruptura" sheetId="129" r:id="rId13"/>
+    <sheet name="ods_tb_planilhao" sheetId="112" r:id="rId14"/>
+    <sheet name="ods_tb_planilhao_atacado" sheetId="115" r:id="rId15"/>
+    <sheet name="stg_planilhao_pricing" sheetId="118" r:id="rId16"/>
+    <sheet name="stg_planilhao_ruptura" sheetId="119" r:id="rId17"/>
+    <sheet name="stg_planilhao_rupturas" sheetId="128" r:id="rId18"/>
+    <sheet name="stg_sige_preco_tabela" sheetId="107" r:id="rId19"/>
+    <sheet name="stg_tb_planilhao" sheetId="111" r:id="rId20"/>
+    <sheet name="stg_tb_planilhao_atacado" sheetId="114" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="588">
   <si>
     <t>Campo</t>
   </si>
@@ -1778,9 +1779,6 @@
     <t>aux_estoque_cmd_hist_mes</t>
   </si>
   <si>
-    <t>stg_planilhao_pricing</t>
-  </si>
-  <si>
     <t>aux_planilhao_faturamento</t>
   </si>
   <si>
@@ -1791,6 +1789,15 @@
   </si>
   <si>
     <t>stg_planilhao_ruptura</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_planilhao_ruptura]</t>
+  </si>
+  <si>
+    <t>Está desabilitado</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2076,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2118,6 +2125,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2634,6 +2649,51 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3278,233 +3338,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:5">
       <c r="B3" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="15" t="str">
+      <c r="C3" s="22"/>
+      <c r="D3" s="15" t="str">
         <f>aux_estoque_cmd_hist!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura.dtsx</v>
       </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="22"/>
+      <c r="D4" s="15" t="str">
         <f>aux_estoque_cmd_hist_atacado!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_atacado.dtsx</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="C5" s="15" t="str">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="24" t="str">
+        <f>aux_estoque_cmd_hist_mes!B9</f>
+        <v>[dbo].[aux_estoque_cmd_hist_mes]</v>
+      </c>
+      <c r="C5" s="22" t="str">
+        <f>aux_estoque_cmd_hist_mes!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D5" s="15" t="str">
         <f>aux_estoque_cmd_hist_mes!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura.dtsx</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="22"/>
+      <c r="D6" s="15" t="str">
         <f>aux_planilhao_cmd_hist!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="C7" s="15" t="str">
+        <v>581</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="15" t="str">
         <f>aux_planilhao_faturamento!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="22"/>
+      <c r="D8" s="15" t="str">
         <f>aux_planilhao_lead_time!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="22"/>
+      <c r="D9" s="15" t="str">
         <f>aux_planilhao_movimento!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="22"/>
+      <c r="D10" s="15" t="str">
         <f>aux_planilhao_nr!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="22"/>
+      <c r="D11" s="15" t="str">
         <f>aux_planilhao_periodo_cmd!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="C12" s="15" t="str">
+        <v>583</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="15" t="str">
         <f>aux_planilhao_produto!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="C13" s="15" t="str">
+        <v>582</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="15" t="str">
         <f>aux_planilhao_rentab_prod!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="16" t="s">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="25" t="str">
+        <f>ods_planilhao_ruptura!B9</f>
+        <v>[dbo].[ods_planilhao_ruptura]</v>
+      </c>
+      <c r="C14" s="22" t="str">
+        <f>ods_planilhao_ruptura!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D14" s="15" t="str">
+        <f>ods_planilhao_ruptura!B10</f>
+        <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura.dtsx</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C15" s="22"/>
+      <c r="D15" s="15" t="str">
         <f>ods_tb_planilhao!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\ods_planilhao.dtsx</v>
       </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="16" t="s">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C16" s="22"/>
+      <c r="D16" s="15" t="str">
         <f>ods_tb_planilhao_atacado!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\ods_planilhao_atacado.dtsx</v>
       </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="C16" s="15" t="str">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="25" t="str">
+        <f>stg_planilhao_pricing!B9</f>
+        <v>[com].[stg_planilhao_pricing]</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f>stg_planilhao_pricing!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D17" s="15" t="str">
         <f>stg_planilhao_pricing!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura.dtsx</v>
       </c>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="C17" s="15" t="str">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="25" t="str">
+        <f>stg_planilhao_ruptura!B9</f>
+        <v>[dbo].[stg_planilhao_ruptura]</v>
+      </c>
+      <c r="C18" s="22" t="str">
+        <f>stg_planilhao_ruptura!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D18" s="15" t="str">
         <f>stg_planilhao_ruptura!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura.dtsx</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="C18" s="15" t="str">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="15" t="str">
         <f>stg_planilhao_rupturas!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="16" t="s">
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C20" s="22"/>
+      <c r="D20" s="15" t="str">
         <f>stg_sige_preco_tabela!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao.dtsx</v>
       </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="16" t="s">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C21" s="22"/>
+      <c r="D21" s="15" t="str">
         <f>stg_tb_planilhao!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao.dtsx</v>
       </c>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="16" t="s">
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C22" s="22"/>
+      <c r="D22" s="15" t="str">
         <f>stg_tb_planilhao_atacado!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_atacado.dtsx</v>
       </c>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="16"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="18"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
     </row>
   </sheetData>
   <sortState ref="B3:D21">
@@ -3522,14 +3632,15 @@
     <hyperlink ref="B11" location="aux_planilhao_periodo_cmd!A1" display="aux_planilhao_periodo_cmd"/>
     <hyperlink ref="B12" location="aux_planilhao_produto!A1" display="aux_planilhao_produto"/>
     <hyperlink ref="B13" location="aux_planilhao_rentab_prod!A1" display="aux_planilhao_rentab_prod"/>
-    <hyperlink ref="B14" location="ods_tb_planilhao!A1" display="ods_tb_planilhao"/>
-    <hyperlink ref="B15" location="ods_tb_planilhao_atacado!A1" display="ods_tb_planilhao_atacado"/>
-    <hyperlink ref="B16" location="stg_planilhao_pricing!A1" display="stg_planilhao_pricing"/>
-    <hyperlink ref="B17" location="stg_planilhao_ruptura!A1" display="stg_planilhao_ruptura"/>
-    <hyperlink ref="B18" location="stg_planilhao_rupturas!A1" display="stg_planilhao_ruptura"/>
-    <hyperlink ref="B19" location="stg_sige_preco_tabela!A1" display="stg_sige_preco_tabela"/>
-    <hyperlink ref="B20" location="stg_tb_planilhao!A1" display="stg_tb_planilhao"/>
-    <hyperlink ref="B21" location="Resumo!A1" display="stg_tb_planilhao_atacado"/>
+    <hyperlink ref="B15" location="ods_tb_planilhao!A1" display="ods_tb_planilhao"/>
+    <hyperlink ref="B16" location="ods_tb_planilhao_atacado!A1" display="ods_tb_planilhao_atacado"/>
+    <hyperlink ref="B17" location="stg_planilhao_pricing!A1" display="stg_planilhao_pricing"/>
+    <hyperlink ref="B18" location="stg_planilhao_ruptura!A1" display="stg_planilhao_ruptura"/>
+    <hyperlink ref="B19" location="stg_planilhao_rupturas!A1" display="stg_planilhao_ruptura"/>
+    <hyperlink ref="B20" location="stg_sige_preco_tabela!A1" display="stg_sige_preco_tabela"/>
+    <hyperlink ref="B21" location="stg_tb_planilhao!A1" display="stg_tb_planilhao"/>
+    <hyperlink ref="B22" location="Resumo!A1" display="stg_tb_planilhao_atacado"/>
+    <hyperlink ref="B14" location="ods_planilhao_ruptura!A1" display="ods_planilhao_ruptura!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4196,6 +4307,740 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E92"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" customHeight="1">
+      <c r="A64" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" customHeight="1">
+      <c r="A65" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" customHeight="1">
+      <c r="A68" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" customHeight="1">
+      <c r="A69" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" customHeight="1">
+      <c r="A70" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" customHeight="1">
+      <c r="A71" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" customHeight="1">
+      <c r="A72" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" customHeight="1">
+      <c r="A73" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" customHeight="1">
+      <c r="A74" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" customHeight="1">
+      <c r="A75" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" customHeight="1">
+      <c r="A76" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" customHeight="1">
+      <c r="A77" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" customHeight="1">
+      <c r="A78" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" customHeight="1">
+      <c r="A80" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" customHeight="1">
+      <c r="A82" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" customHeight="1">
+      <c r="A83" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" customHeight="1">
+      <c r="A84" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" customHeight="1">
+      <c r="A85" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30" customHeight="1">
+      <c r="A86" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" customHeight="1">
+      <c r="A87" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" customHeight="1">
+      <c r="A88" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30" customHeight="1">
+      <c r="A89" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30" customHeight="1">
+      <c r="A90" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30" customHeight="1">
+      <c r="A91" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30" customHeight="1">
+      <c r="A92" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E91"/>
@@ -5063,7 +5908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -5611,7 +6456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -5761,14 +6606,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6647,7 +7492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7509,7 +8354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7621,1066 +8466,6 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E113"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-    </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-    </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1">
-      <c r="A55" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1">
-      <c r="A56" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-    </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1">
-      <c r="A57" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1">
-      <c r="A58" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1">
-      <c r="A59" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1">
-      <c r="A60" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1">
-      <c r="A61" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1">
-      <c r="A62" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1">
-      <c r="A63" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-    </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-    </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-    </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-    </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-    </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-    </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1">
-      <c r="A70" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-    </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1">
-      <c r="A71" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-    </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1">
-      <c r="A72" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-    </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1">
-      <c r="A73" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-    </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-    </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1">
-      <c r="A75" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-    </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1">
-      <c r="A76" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1">
-      <c r="A77" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1">
-      <c r="A78" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-    </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1">
-      <c r="A79" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-    </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-    </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1">
-      <c r="A81" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-    </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1">
-      <c r="A82" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-    </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1">
-      <c r="A83" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-    </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1">
-      <c r="A84" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-    </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1">
-      <c r="A85" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-    </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-    </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1">
-      <c r="A87" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-    </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1">
-      <c r="A88" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-    </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1">
-      <c r="A89" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-    </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1">
-      <c r="A90" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-    </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1">
-      <c r="A91" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-    </row>
-    <row r="92" spans="1:5" ht="30" customHeight="1">
-      <c r="A92" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-    </row>
-    <row r="93" spans="1:5" ht="30" customHeight="1">
-      <c r="A93" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-    </row>
-    <row r="94" spans="1:5" ht="30" customHeight="1">
-      <c r="A94" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-    </row>
-    <row r="95" spans="1:5" ht="30" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-    </row>
-    <row r="96" spans="1:5" ht="30" customHeight="1">
-      <c r="A96" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-    </row>
-    <row r="97" spans="1:5" ht="30" customHeight="1">
-      <c r="A97" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-    </row>
-    <row r="98" spans="1:5" ht="30" customHeight="1">
-      <c r="A98" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-    </row>
-    <row r="113" spans="4:5">
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8836,6 +8621,1066 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
+  <dimension ref="A1:E113"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1">
+      <c r="A64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1">
+      <c r="A65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" spans="1:5" ht="30" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+    </row>
+    <row r="68" spans="1:5" ht="30" customHeight="1">
+      <c r="A68" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" customHeight="1">
+      <c r="A69" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="1:5" ht="30" customHeight="1">
+      <c r="A70" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71" spans="1:5" ht="30" customHeight="1">
+      <c r="A71" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+    </row>
+    <row r="72" spans="1:5" ht="30" customHeight="1">
+      <c r="A72" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+    </row>
+    <row r="73" spans="1:5" ht="30" customHeight="1">
+      <c r="A73" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74" spans="1:5" ht="30" customHeight="1">
+      <c r="A74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+    </row>
+    <row r="75" spans="1:5" ht="30" customHeight="1">
+      <c r="A75" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="1:5" ht="30" customHeight="1">
+      <c r="A76" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" spans="1:5" ht="30" customHeight="1">
+      <c r="A77" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78" spans="1:5" ht="30" customHeight="1">
+      <c r="A78" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" spans="1:5" ht="30" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80" spans="1:5" ht="30" customHeight="1">
+      <c r="A80" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81" spans="1:5" ht="30" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="1:5" ht="30" customHeight="1">
+      <c r="A82" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="1:5" ht="30" customHeight="1">
+      <c r="A83" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="1:5" ht="30" customHeight="1">
+      <c r="A84" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="1:5" ht="30" customHeight="1">
+      <c r="A85" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="1:5" ht="30" customHeight="1">
+      <c r="A86" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+    </row>
+    <row r="87" spans="1:5" ht="30" customHeight="1">
+      <c r="A87" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+    </row>
+    <row r="88" spans="1:5" ht="30" customHeight="1">
+      <c r="A88" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+    </row>
+    <row r="89" spans="1:5" ht="30" customHeight="1">
+      <c r="A89" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+    </row>
+    <row r="90" spans="1:5" ht="30" customHeight="1">
+      <c r="A90" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+    </row>
+    <row r="91" spans="1:5" ht="30" customHeight="1">
+      <c r="A91" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+    </row>
+    <row r="92" spans="1:5" ht="30" customHeight="1">
+      <c r="A92" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+    </row>
+    <row r="93" spans="1:5" ht="30" customHeight="1">
+      <c r="A93" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+    </row>
+    <row r="94" spans="1:5" ht="30" customHeight="1">
+      <c r="A94" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+    </row>
+    <row r="95" spans="1:5" ht="30" customHeight="1">
+      <c r="A95" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+    </row>
+    <row r="96" spans="1:5" ht="30" customHeight="1">
+      <c r="A96" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+    </row>
+    <row r="97" spans="1:5" ht="30" customHeight="1">
+      <c r="A97" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+    </row>
+    <row r="98" spans="1:5" ht="30" customHeight="1">
+      <c r="A98" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+    </row>
+    <row r="113" spans="4:5">
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>

--- a/Documentação/Planilhas/Layouts/Planilhao_LN.xlsx
+++ b/Documentação/Planilhas/Layouts/Planilhao_LN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="582">
   <si>
     <t>Campo</t>
   </si>
@@ -1767,25 +1767,7 @@
     <t xml:space="preserve">aux_planilhao_rentab_prod </t>
   </si>
   <si>
-    <t>stg_sige_preco_tabela</t>
-  </si>
-  <si>
-    <t>ods_tb_planilhao</t>
-  </si>
-  <si>
-    <t>ods_tb_planilhao_atacado</t>
-  </si>
-  <si>
     <t>aux_estoque_cmd_hist_mes</t>
-  </si>
-  <si>
-    <t>aux_planilhao_faturamento</t>
-  </si>
-  <si>
-    <t>aux_planilhao_rentab_prod</t>
-  </si>
-  <si>
-    <t>aux_planilhao_produto</t>
   </si>
   <si>
     <t>stg_planilhao_ruptura</t>
@@ -1804,7 +1786,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1830,6 +1812,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2076,7 +2065,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2106,33 +2095,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3340,281 +3327,345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="37" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:5" s="2" customFormat="1">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="15" t="str">
+    <row r="3" spans="2:5" s="2" customFormat="1">
+      <c r="B3" s="15" t="str">
+        <f>aux_estoque_cmd_hist!B9</f>
+        <v>[dbo].[aux_estoque_cmd_hist]</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f>aux_estoque_cmd_hist!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D3" s="17" t="str">
         <f>aux_estoque_cmd_hist!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura.dtsx</v>
       </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="15" t="str">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="2:5" s="2" customFormat="1">
+      <c r="B4" s="15" t="str">
+        <f>aux_estoque_cmd_hist_atacado!B9</f>
+        <v>[dbo].[aux_estoque_cmd_hist_atacado]</v>
+      </c>
+      <c r="C4" s="16" t="str">
+        <f>aux_estoque_cmd_hist_atacado!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D4" s="17" t="str">
         <f>aux_estoque_cmd_hist_atacado!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_atacado.dtsx</v>
       </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="24" t="str">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="2:5" s="2" customFormat="1">
+      <c r="B5" s="15" t="str">
         <f>aux_estoque_cmd_hist_mes!B9</f>
         <v>[dbo].[aux_estoque_cmd_hist_mes]</v>
       </c>
-      <c r="C5" s="22" t="str">
+      <c r="C5" s="16" t="str">
         <f>aux_estoque_cmd_hist_mes!B8</f>
         <v>MIS_DW</v>
       </c>
-      <c r="D5" s="15" t="str">
+      <c r="D5" s="17" t="str">
         <f>aux_estoque_cmd_hist_mes!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura.dtsx</v>
       </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="15" t="str">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="2:5" s="2" customFormat="1">
+      <c r="B6" s="15" t="str">
+        <f>aux_planilhao_cmd_hist!B9</f>
+        <v>[dbo].[aux_planilhao_cmd_hist]</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>aux_planilhao_cmd_hist!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D6" s="17" t="str">
         <f>aux_planilhao_cmd_hist!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="15" t="str">
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="2:5" s="2" customFormat="1">
+      <c r="B7" s="15" t="str">
+        <f>aux_planilhao_faturamento!B9</f>
+        <v>[dbo].[aux_planilhao_faturamento]</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f>aux_planilhao_faturamento!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D7" s="17" t="str">
         <f>aux_planilhao_faturamento!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="15" t="str">
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5" s="2" customFormat="1">
+      <c r="B8" s="15" t="str">
+        <f>aux_planilhao_lead_time!B9</f>
+        <v>[dbo].[aux_planilhao_lead_time]</v>
+      </c>
+      <c r="C8" s="16" t="str">
+        <f>aux_planilhao_lead_time!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D8" s="17" t="str">
         <f>aux_planilhao_lead_time!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="15" t="str">
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" s="2" customFormat="1">
+      <c r="B9" s="15" t="str">
+        <f>aux_planilhao_movimento!B9</f>
+        <v>[dbo].[aux_planilhao_movimento]</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f>aux_planilhao_movimento!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D9" s="17" t="str">
         <f>aux_planilhao_movimento!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="15" t="str">
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5" s="2" customFormat="1">
+      <c r="B10" s="18" t="str">
+        <f>aux_planilhao_nr!B9</f>
+        <v>[dbo].[aux_planilhao_nr]</v>
+      </c>
+      <c r="C10" s="16" t="str">
+        <f>aux_planilhao_nr!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D10" s="17" t="str">
         <f>aux_planilhao_nr!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="15" t="str">
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="2:5" s="2" customFormat="1">
+      <c r="B11" s="18" t="str">
+        <f>aux_planilhao_periodo_cmd!B9</f>
+        <v>[dbo].[aux_planilhao_periodo_cmd]</v>
+      </c>
+      <c r="C11" s="16" t="str">
+        <f>aux_planilhao_periodo_cmd!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D11" s="17" t="str">
         <f>aux_planilhao_periodo_cmd!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="15" t="str">
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:5" s="2" customFormat="1">
+      <c r="B12" s="18" t="str">
+        <f>aux_planilhao_produto!B9</f>
+        <v>[dbo].[aux_planilhao_produto]</v>
+      </c>
+      <c r="C12" s="16" t="str">
+        <f>aux_planilhao_produto!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D12" s="17" t="str">
         <f>aux_planilhao_produto!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="15" t="str">
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="2:5" s="2" customFormat="1">
+      <c r="B13" s="18" t="str">
+        <f>aux_planilhao_rentab_prod!B9</f>
+        <v>[dbo].[aux_planilhao_rentab_prod]</v>
+      </c>
+      <c r="C13" s="16" t="str">
+        <f>aux_planilhao_rentab_prod!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D13" s="17" t="str">
         <f>aux_planilhao_rentab_prod!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="25" t="str">
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="2:5" s="2" customFormat="1">
+      <c r="B14" s="18" t="str">
         <f>ods_planilhao_ruptura!B9</f>
         <v>[dbo].[ods_planilhao_ruptura]</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="16" t="str">
         <f>ods_planilhao_ruptura!B8</f>
         <v>MIS_RELATORIO</v>
       </c>
-      <c r="D14" s="15" t="str">
+      <c r="D14" s="17" t="str">
         <f>ods_planilhao_ruptura!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura.dtsx</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="15" t="str">
+      <c r="E14" s="19" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="2" customFormat="1">
+      <c r="B15" s="18" t="str">
+        <f>ods_tb_planilhao!B9</f>
+        <v>[dbo].[ods_tb_planilhao]</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <f>ods_tb_planilhao!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D15" s="17" t="str">
         <f>ods_tb_planilhao!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\ods_planilhao.dtsx</v>
       </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="15" t="str">
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:5" s="2" customFormat="1">
+      <c r="B16" s="18" t="str">
+        <f>ods_tb_planilhao_atacado!B9</f>
+        <v>[dbo].[ods_tb_planilhao_atacado]</v>
+      </c>
+      <c r="C16" s="16" t="str">
+        <f>ods_tb_planilhao_atacado!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D16" s="17" t="str">
         <f>ods_tb_planilhao_atacado!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\ods_planilhao_atacado.dtsx</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="25" t="str">
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:5" s="2" customFormat="1">
+      <c r="B17" s="18" t="str">
         <f>stg_planilhao_pricing!B9</f>
         <v>[com].[stg_planilhao_pricing]</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="16" t="str">
         <f>stg_planilhao_pricing!B8</f>
         <v>MIS_STAGING</v>
       </c>
-      <c r="D17" s="15" t="str">
+      <c r="D17" s="17" t="str">
         <f>stg_planilhao_pricing!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura.dtsx</v>
       </c>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="25" t="str">
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="2:5" s="2" customFormat="1">
+      <c r="B18" s="18" t="str">
         <f>stg_planilhao_ruptura!B9</f>
         <v>[dbo].[stg_planilhao_ruptura]</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="16" t="str">
         <f>stg_planilhao_ruptura!B8</f>
         <v>MIS_RELATORIO</v>
       </c>
-      <c r="D18" s="15" t="str">
+      <c r="D18" s="17" t="str">
         <f>stg_planilhao_ruptura!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura.dtsx</v>
       </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="15" t="str">
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:5" s="2" customFormat="1">
+      <c r="B19" s="18" t="str">
+        <f>stg_planilhao_rupturas!B9</f>
+        <v>[dbo].[stg_planilhao_ruptura]</v>
+      </c>
+      <c r="C19" s="16" t="str">
+        <f>stg_planilhao_rupturas!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D19" s="17" t="str">
         <f>stg_planilhao_rupturas!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_ruptura_filial_16.dtsx</v>
       </c>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="15" t="str">
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="2:5" s="2" customFormat="1">
+      <c r="B20" s="18" t="str">
+        <f>stg_sige_preco_tabela!B9</f>
+        <v>[dbo].[stg_sige_preco_tabela]</v>
+      </c>
+      <c r="C20" s="16" t="str">
+        <f>stg_sige_preco_tabela!B8:B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D20" s="17" t="str">
         <f>stg_sige_preco_tabela!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao.dtsx</v>
       </c>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="15" t="str">
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="2:5" s="2" customFormat="1">
+      <c r="B21" s="18" t="str">
+        <f>stg_tb_planilhao!B9</f>
+        <v>[dbo].[stg_tb_planilhao]</v>
+      </c>
+      <c r="C21" s="16" t="str">
+        <f>stg_tb_planilhao!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D21" s="17" t="str">
         <f>stg_tb_planilhao!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao.dtsx</v>
       </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="15" t="str">
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="2:5" s="2" customFormat="1">
+      <c r="B22" s="18" t="str">
+        <f>stg_tb_planilhao_atacado!B9</f>
+        <v>[dbo].[stg_tb_planilhao_atacado]</v>
+      </c>
+      <c r="C22" s="16" t="str">
+        <f>stg_tb_planilhao_atacado!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D22" s="17" t="str">
         <f>stg_tb_planilhao_atacado!B10</f>
         <v>N:\Migracao\Planilhao_LN\Planilhao_LN\stg_planilhao_atacado.dtsx</v>
       </c>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="16"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="18"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="2:5" s="2" customFormat="1">
+      <c r="B23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="2:5" s="2" customFormat="1">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
     </row>
   </sheetData>
   <sortState ref="B3:D21">
@@ -3639,10 +3690,11 @@
     <hyperlink ref="B19" location="stg_planilhao_rupturas!A1" display="stg_planilhao_ruptura"/>
     <hyperlink ref="B20" location="stg_sige_preco_tabela!A1" display="stg_sige_preco_tabela"/>
     <hyperlink ref="B21" location="stg_tb_planilhao!A1" display="stg_tb_planilhao"/>
-    <hyperlink ref="B22" location="Resumo!A1" display="stg_tb_planilhao_atacado"/>
+    <hyperlink ref="B22" location="stg_tb_planilhao_atacado!A1" display="stg_tb_planilhao_atacado!A1"/>
     <hyperlink ref="B14" location="ods_planilhao_ruptura!A1" display="ods_planilhao_ruptura!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4357,7 +4409,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4394,7 +4446,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -4408,7 +4460,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
@@ -5158,8 +5210,8 @@
       <c r="B17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -5168,8 +5220,8 @@
       <c r="B18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -5178,8 +5230,8 @@
       <c r="B19" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -5188,8 +5240,8 @@
       <c r="B20" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
@@ -5198,8 +5250,8 @@
       <c r="B21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
@@ -5208,8 +5260,8 @@
       <c r="B22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
@@ -5218,8 +5270,8 @@
       <c r="B23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
@@ -5228,8 +5280,8 @@
       <c r="B24" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
@@ -5238,8 +5290,8 @@
       <c r="B25" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
@@ -5248,8 +5300,8 @@
       <c r="B26" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
@@ -5258,8 +5310,8 @@
       <c r="B27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
@@ -5268,8 +5320,8 @@
       <c r="B28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
@@ -5278,8 +5330,8 @@
       <c r="B29" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
@@ -5288,8 +5340,8 @@
       <c r="B30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
@@ -5298,8 +5350,8 @@
       <c r="B31" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
@@ -5308,8 +5360,8 @@
       <c r="B32" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
@@ -5318,8 +5370,8 @@
       <c r="B33" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
@@ -5328,8 +5380,8 @@
       <c r="B34" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
@@ -5338,8 +5390,8 @@
       <c r="B35" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
@@ -5348,8 +5400,8 @@
       <c r="B36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
@@ -5358,8 +5410,8 @@
       <c r="B37" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
@@ -5368,8 +5420,8 @@
       <c r="B38" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
@@ -5378,8 +5430,8 @@
       <c r="B39" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
       <c r="A40" s="6" t="s">
@@ -5388,8 +5440,8 @@
       <c r="B40" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
       <c r="A41" s="6" t="s">
@@ -5398,8 +5450,8 @@
       <c r="B41" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
       <c r="A42" s="6" t="s">
@@ -5408,8 +5460,8 @@
       <c r="B42" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
       <c r="A43" s="6" t="s">
@@ -5418,8 +5470,8 @@
       <c r="B43" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1">
       <c r="A44" s="6" t="s">
@@ -5428,8 +5480,8 @@
       <c r="B44" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1">
       <c r="A45" s="6" t="s">
@@ -5438,8 +5490,8 @@
       <c r="B45" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1">
       <c r="A46" s="6" t="s">
@@ -5448,8 +5500,8 @@
       <c r="B46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
       <c r="A47" s="6" t="s">
@@ -5458,8 +5510,8 @@
       <c r="B47" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
       <c r="A48" s="6" t="s">
@@ -5468,8 +5520,8 @@
       <c r="B48" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
       <c r="A49" s="6" t="s">
@@ -5478,8 +5530,8 @@
       <c r="B49" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
@@ -5488,8 +5540,8 @@
       <c r="B50" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
@@ -5498,8 +5550,8 @@
       <c r="B51" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1">
       <c r="A52" s="6" t="s">
@@ -5508,8 +5560,8 @@
       <c r="B52" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1">
       <c r="A53" s="6" t="s">
@@ -5518,8 +5570,8 @@
       <c r="B53" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1">
       <c r="A54" s="6" t="s">
@@ -5528,8 +5580,8 @@
       <c r="B54" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1">
       <c r="A55" s="6" t="s">
@@ -5538,8 +5590,8 @@
       <c r="B55" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1">
       <c r="A56" s="6" t="s">
@@ -5548,8 +5600,8 @@
       <c r="B56" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
       <c r="A57" s="6" t="s">
@@ -5558,8 +5610,8 @@
       <c r="B57" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1">
       <c r="A58" s="6" t="s">
@@ -5568,8 +5620,8 @@
       <c r="B58" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1">
       <c r="A59" s="6" t="s">
@@ -5578,8 +5630,8 @@
       <c r="B59" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1">
       <c r="A60" s="6" t="s">
@@ -5588,8 +5640,8 @@
       <c r="B60" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1">
       <c r="A61" s="6" t="s">
@@ -5598,8 +5650,8 @@
       <c r="B61" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1">
       <c r="A62" s="6" t="s">
@@ -5608,8 +5660,8 @@
       <c r="B62" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1">
       <c r="A63" s="6" t="s">
@@ -5618,8 +5670,8 @@
       <c r="B63" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1">
       <c r="A64" s="6" t="s">
@@ -5628,8 +5680,8 @@
       <c r="B64" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="30" customHeight="1">
       <c r="A65" s="6" t="s">
@@ -5638,8 +5690,8 @@
       <c r="B65" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="30" customHeight="1">
       <c r="A66" s="6" t="s">
@@ -5648,8 +5700,8 @@
       <c r="B66" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1">
       <c r="A67" s="6" t="s">
@@ -5658,8 +5710,8 @@
       <c r="B67" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="30" customHeight="1">
       <c r="A68" s="6" t="s">
@@ -5668,8 +5720,8 @@
       <c r="B68" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1">
       <c r="A69" s="6" t="s">
@@ -5678,8 +5730,8 @@
       <c r="B69" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="30" customHeight="1">
       <c r="A70" s="6" t="s">
@@ -5688,8 +5740,8 @@
       <c r="B70" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1">
       <c r="A71" s="6" t="s">
@@ -5698,8 +5750,8 @@
       <c r="B71" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1">
       <c r="A72" s="6" t="s">
@@ -5708,8 +5760,8 @@
       <c r="B72" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" ht="30" customHeight="1">
       <c r="A73" s="6" t="s">
@@ -5718,8 +5770,8 @@
       <c r="B73" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1">
       <c r="A74" s="6" t="s">
@@ -5728,8 +5780,8 @@
       <c r="B74" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" ht="30" customHeight="1">
       <c r="A75" s="6" t="s">
@@ -5738,8 +5790,8 @@
       <c r="B75" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:5" ht="30" customHeight="1">
       <c r="A76" s="6" t="s">
@@ -5748,8 +5800,8 @@
       <c r="B76" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" ht="30" customHeight="1">
       <c r="A77" s="6" t="s">
@@ -5758,8 +5810,8 @@
       <c r="B77" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" ht="30" customHeight="1">
       <c r="A78" s="6" t="s">
@@ -5768,8 +5820,8 @@
       <c r="B78" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" ht="30" customHeight="1">
       <c r="A79" s="6" t="s">
@@ -5778,8 +5830,8 @@
       <c r="B79" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" ht="30" customHeight="1">
       <c r="A80" s="6" t="s">
@@ -5788,8 +5840,8 @@
       <c r="B80" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="30" customHeight="1">
       <c r="A81" s="6" t="s">
@@ -5798,8 +5850,8 @@
       <c r="B81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="30" customHeight="1">
       <c r="A82" s="6" t="s">
@@ -5808,8 +5860,8 @@
       <c r="B82" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" ht="30" customHeight="1">
       <c r="A83" s="6" t="s">
@@ -5818,8 +5870,8 @@
       <c r="B83" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" ht="30" customHeight="1">
       <c r="A84" s="6" t="s">
@@ -5828,8 +5880,8 @@
       <c r="B84" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="1:5" ht="30" customHeight="1">
       <c r="A85" s="6" t="s">
@@ -5838,8 +5890,8 @@
       <c r="B85" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" ht="30" customHeight="1">
       <c r="A86" s="6" t="s">
@@ -5848,8 +5900,8 @@
       <c r="B86" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" ht="30" customHeight="1">
       <c r="A87" s="6" t="s">
@@ -5858,8 +5910,8 @@
       <c r="B87" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" ht="30" customHeight="1">
       <c r="A88" s="6" t="s">
@@ -5868,8 +5920,8 @@
       <c r="B88" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="30" customHeight="1">
       <c r="A89" s="6" t="s">
@@ -5878,8 +5930,8 @@
       <c r="B89" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" ht="30" customHeight="1">
       <c r="A90" s="6" t="s">
@@ -5888,8 +5940,8 @@
       <c r="B90" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" ht="30" customHeight="1">
       <c r="A91" s="7" t="s">
@@ -5898,8 +5950,8 @@
       <c r="B91" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6018,8 +6070,8 @@
       <c r="B16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -6028,8 +6080,8 @@
       <c r="B17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -6038,8 +6090,8 @@
       <c r="B18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -6048,8 +6100,8 @@
       <c r="B19" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -6058,8 +6110,8 @@
       <c r="B20" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
@@ -6068,8 +6120,8 @@
       <c r="B21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
@@ -6078,8 +6130,8 @@
       <c r="B22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
@@ -6088,8 +6140,8 @@
       <c r="B23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
@@ -6098,8 +6150,8 @@
       <c r="B24" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
@@ -6108,8 +6160,8 @@
       <c r="B25" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
@@ -6118,8 +6170,8 @@
       <c r="B26" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
@@ -6128,8 +6180,8 @@
       <c r="B27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
@@ -6138,8 +6190,8 @@
       <c r="B28" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
@@ -6148,8 +6200,8 @@
       <c r="B29" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
@@ -6158,8 +6210,8 @@
       <c r="B30" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
@@ -6168,8 +6220,8 @@
       <c r="B31" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
@@ -6178,8 +6230,8 @@
       <c r="B32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
@@ -6188,8 +6240,8 @@
       <c r="B33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
@@ -6198,8 +6250,8 @@
       <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
@@ -6208,8 +6260,8 @@
       <c r="B35" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
@@ -6218,8 +6270,8 @@
       <c r="B36" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
@@ -6228,8 +6280,8 @@
       <c r="B37" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
@@ -6238,8 +6290,8 @@
       <c r="B38" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
@@ -6248,8 +6300,8 @@
       <c r="B39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
       <c r="A40" s="6" t="s">
@@ -6258,8 +6310,8 @@
       <c r="B40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
       <c r="A41" s="6" t="s">
@@ -6268,8 +6320,8 @@
       <c r="B41" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
       <c r="A42" s="6" t="s">
@@ -6278,8 +6330,8 @@
       <c r="B42" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
       <c r="A43" s="6" t="s">
@@ -6288,8 +6340,8 @@
       <c r="B43" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1">
       <c r="A44" s="6" t="s">
@@ -6298,8 +6350,8 @@
       <c r="B44" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1">
       <c r="A45" s="6" t="s">
@@ -6308,8 +6360,8 @@
       <c r="B45" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1">
       <c r="A46" s="6" t="s">
@@ -6318,8 +6370,8 @@
       <c r="B46" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
       <c r="A47" s="6" t="s">
@@ -6328,8 +6380,8 @@
       <c r="B47" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
       <c r="A48" s="6" t="s">
@@ -6338,8 +6390,8 @@
       <c r="B48" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
       <c r="A49" s="6" t="s">
@@ -6348,8 +6400,8 @@
       <c r="B49" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
@@ -6358,8 +6410,8 @@
       <c r="B50" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
@@ -6613,7 +6665,7 @@
   </sheetPr>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -8602,12 +8654,12 @@
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8946,8 +8998,8 @@
       <c r="B32" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
@@ -8956,8 +9008,8 @@
       <c r="B33" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
@@ -8966,8 +9018,8 @@
       <c r="B34" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
@@ -8976,8 +9028,8 @@
       <c r="B35" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
@@ -8986,8 +9038,8 @@
       <c r="B36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
@@ -8996,8 +9048,8 @@
       <c r="B37" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
@@ -9006,8 +9058,8 @@
       <c r="B38" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
@@ -9016,8 +9068,8 @@
       <c r="B39" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
       <c r="A40" s="6" t="s">
@@ -9026,8 +9078,8 @@
       <c r="B40" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
       <c r="A41" s="6" t="s">
@@ -9036,8 +9088,8 @@
       <c r="B41" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
       <c r="A42" s="6" t="s">
@@ -9046,8 +9098,8 @@
       <c r="B42" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
       <c r="A43" s="6" t="s">
@@ -9056,8 +9108,8 @@
       <c r="B43" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1">
       <c r="A44" s="6" t="s">
@@ -9066,8 +9118,8 @@
       <c r="B44" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1">
       <c r="A45" s="6" t="s">
@@ -9076,8 +9128,8 @@
       <c r="B45" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1">
       <c r="A46" s="6" t="s">
@@ -9086,8 +9138,8 @@
       <c r="B46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
       <c r="A47" s="6" t="s">
@@ -9096,8 +9148,8 @@
       <c r="B47" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
       <c r="A48" s="6" t="s">
@@ -9106,8 +9158,8 @@
       <c r="B48" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
       <c r="A49" s="6" t="s">
@@ -9116,8 +9168,8 @@
       <c r="B49" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
@@ -9126,8 +9178,8 @@
       <c r="B50" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
@@ -9136,8 +9188,8 @@
       <c r="B51" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1">
       <c r="A52" s="6" t="s">
@@ -9146,8 +9198,8 @@
       <c r="B52" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1">
       <c r="A53" s="6" t="s">
@@ -9156,8 +9208,8 @@
       <c r="B53" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1">
       <c r="A54" s="6" t="s">
@@ -9166,8 +9218,8 @@
       <c r="B54" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1">
       <c r="A55" s="6" t="s">
@@ -9176,8 +9228,8 @@
       <c r="B55" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1">
       <c r="A56" s="6" t="s">
@@ -9186,8 +9238,8 @@
       <c r="B56" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
       <c r="A57" s="6" t="s">
@@ -9196,8 +9248,8 @@
       <c r="B57" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1">
       <c r="A58" s="6" t="s">
@@ -9206,8 +9258,8 @@
       <c r="B58" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1">
       <c r="A59" s="6" t="s">
@@ -9216,8 +9268,8 @@
       <c r="B59" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1">
       <c r="A60" s="6" t="s">
@@ -9226,8 +9278,8 @@
       <c r="B60" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1">
       <c r="A61" s="6" t="s">
@@ -9236,8 +9288,8 @@
       <c r="B61" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1">
       <c r="A62" s="6" t="s">
@@ -9246,8 +9298,8 @@
       <c r="B62" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1">
       <c r="A63" s="6" t="s">
@@ -9256,8 +9308,8 @@
       <c r="B63" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1">
       <c r="A64" s="6" t="s">
@@ -9266,8 +9318,8 @@
       <c r="B64" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="30" customHeight="1">
       <c r="A65" s="6" t="s">
@@ -9276,8 +9328,8 @@
       <c r="B65" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="30" customHeight="1">
       <c r="A66" s="6" t="s">
@@ -9286,8 +9338,8 @@
       <c r="B66" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1">
       <c r="A67" s="6" t="s">
@@ -9296,8 +9348,8 @@
       <c r="B67" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="30" customHeight="1">
       <c r="A68" s="6" t="s">
@@ -9306,8 +9358,8 @@
       <c r="B68" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1">
       <c r="A69" s="6" t="s">
@@ -9316,8 +9368,8 @@
       <c r="B69" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="30" customHeight="1">
       <c r="A70" s="6" t="s">
@@ -9326,8 +9378,8 @@
       <c r="B70" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1">
       <c r="A71" s="6" t="s">
@@ -9336,8 +9388,8 @@
       <c r="B71" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1">
       <c r="A72" s="6" t="s">
@@ -9346,8 +9398,8 @@
       <c r="B72" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" ht="30" customHeight="1">
       <c r="A73" s="6" t="s">
@@ -9356,8 +9408,8 @@
       <c r="B73" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1">
       <c r="A74" s="6" t="s">
@@ -9366,8 +9418,8 @@
       <c r="B74" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" ht="30" customHeight="1">
       <c r="A75" s="6" t="s">
@@ -9376,8 +9428,8 @@
       <c r="B75" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:5" ht="30" customHeight="1">
       <c r="A76" s="6" t="s">
@@ -9386,8 +9438,8 @@
       <c r="B76" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" ht="30" customHeight="1">
       <c r="A77" s="6" t="s">
@@ -9396,8 +9448,8 @@
       <c r="B77" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" ht="30" customHeight="1">
       <c r="A78" s="6" t="s">
@@ -9406,8 +9458,8 @@
       <c r="B78" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" ht="30" customHeight="1">
       <c r="A79" s="6" t="s">
@@ -9416,8 +9468,8 @@
       <c r="B79" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" ht="30" customHeight="1">
       <c r="A80" s="6" t="s">
@@ -9426,8 +9478,8 @@
       <c r="B80" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="30" customHeight="1">
       <c r="A81" s="6" t="s">
@@ -9436,8 +9488,8 @@
       <c r="B81" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="30" customHeight="1">
       <c r="A82" s="6" t="s">
@@ -9446,8 +9498,8 @@
       <c r="B82" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" ht="30" customHeight="1">
       <c r="A83" s="6" t="s">
@@ -9456,8 +9508,8 @@
       <c r="B83" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" ht="30" customHeight="1">
       <c r="A84" s="6" t="s">
@@ -9466,8 +9518,8 @@
       <c r="B84" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="1:5" ht="30" customHeight="1">
       <c r="A85" s="6" t="s">
@@ -9476,8 +9528,8 @@
       <c r="B85" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" ht="30" customHeight="1">
       <c r="A86" s="6" t="s">
@@ -9486,8 +9538,8 @@
       <c r="B86" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" ht="30" customHeight="1">
       <c r="A87" s="6" t="s">
@@ -9496,8 +9548,8 @@
       <c r="B87" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" ht="30" customHeight="1">
       <c r="A88" s="6" t="s">
@@ -9506,8 +9558,8 @@
       <c r="B88" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="30" customHeight="1">
       <c r="A89" s="6" t="s">
@@ -9516,8 +9568,8 @@
       <c r="B89" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" ht="30" customHeight="1">
       <c r="A90" s="6" t="s">
@@ -9526,8 +9578,8 @@
       <c r="B90" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" ht="30" customHeight="1">
       <c r="A91" s="6" t="s">
@@ -9536,8 +9588,8 @@
       <c r="B91" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" ht="30" customHeight="1">
       <c r="A92" s="6" t="s">
@@ -9546,8 +9598,8 @@
       <c r="B92" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="30" customHeight="1">
       <c r="A93" s="6" t="s">
@@ -9556,8 +9608,8 @@
       <c r="B93" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" ht="30" customHeight="1">
       <c r="A94" s="6" t="s">
@@ -9566,8 +9618,8 @@
       <c r="B94" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="30" customHeight="1">
       <c r="A95" s="6" t="s">
@@ -9576,8 +9628,8 @@
       <c r="B95" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:5" ht="30" customHeight="1">
       <c r="A96" s="6" t="s">
@@ -9586,8 +9638,8 @@
       <c r="B96" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" ht="30" customHeight="1">
       <c r="A97" s="6" t="s">
@@ -9596,8 +9648,8 @@
       <c r="B97" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" ht="30" customHeight="1">
       <c r="A98" s="7" t="s">
@@ -9606,68 +9658,68 @@
       <c r="B98" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
     </row>
     <row r="113" spans="4:5">
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9936,8 +9988,8 @@
       <c r="B27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
@@ -9946,8 +9998,8 @@
       <c r="B28" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
@@ -9956,8 +10008,8 @@
       <c r="B29" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
@@ -9966,8 +10018,8 @@
       <c r="B30" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
@@ -9976,8 +10028,8 @@
       <c r="B31" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
@@ -9986,8 +10038,8 @@
       <c r="B32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
@@ -9996,8 +10048,8 @@
       <c r="B33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
@@ -10006,8 +10058,8 @@
       <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
@@ -10016,8 +10068,8 @@
       <c r="B35" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
@@ -10026,8 +10078,8 @@
       <c r="B36" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
@@ -10036,8 +10088,8 @@
       <c r="B37" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
@@ -10046,8 +10098,8 @@
       <c r="B38" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
@@ -10056,8 +10108,8 @@
       <c r="B39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
       <c r="A40" s="6" t="s">
@@ -10066,8 +10118,8 @@
       <c r="B40" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
       <c r="A41" s="6" t="s">
@@ -10076,8 +10128,8 @@
       <c r="B41" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
       <c r="A42" s="6" t="s">
@@ -10086,8 +10138,8 @@
       <c r="B42" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
       <c r="A43" s="6" t="s">
@@ -10096,8 +10148,8 @@
       <c r="B43" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1">
       <c r="A44" s="6" t="s">
@@ -10106,8 +10158,8 @@
       <c r="B44" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1">
       <c r="A45" s="6" t="s">
@@ -10116,8 +10168,8 @@
       <c r="B45" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1">
       <c r="A46" s="6" t="s">
@@ -10126,8 +10178,8 @@
       <c r="B46" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
       <c r="A47" s="6" t="s">
@@ -10136,8 +10188,8 @@
       <c r="B47" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
       <c r="A48" s="6" t="s">
@@ -10146,8 +10198,8 @@
       <c r="B48" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
       <c r="A49" s="6" t="s">
@@ -10156,8 +10208,8 @@
       <c r="B49" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
@@ -10166,8 +10218,8 @@
       <c r="B50" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
@@ -10176,8 +10228,8 @@
       <c r="B51" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1">
       <c r="A52" s="6" t="s">
@@ -10186,8 +10238,8 @@
       <c r="B52" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1">
       <c r="A53" s="6" t="s">
@@ -10196,8 +10248,8 @@
       <c r="B53" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1">
       <c r="A54" s="6" t="s">
@@ -10206,8 +10258,8 @@
       <c r="B54" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1">
       <c r="A55" s="6" t="s">
@@ -10216,8 +10268,8 @@
       <c r="B55" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1">
       <c r="A56" s="6" t="s">
@@ -10226,8 +10278,8 @@
       <c r="B56" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
       <c r="A57" s="6" t="s">
@@ -10236,8 +10288,8 @@
       <c r="B57" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1">
       <c r="A58" s="6" t="s">
@@ -10246,8 +10298,8 @@
       <c r="B58" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1">
       <c r="A59" s="6" t="s">
@@ -10256,8 +10308,8 @@
       <c r="B59" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1">
       <c r="A60" s="6" t="s">
@@ -10266,8 +10318,8 @@
       <c r="B60" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1">
       <c r="A61" s="6" t="s">
@@ -10276,8 +10328,8 @@
       <c r="B61" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1">
       <c r="A62" s="6" t="s">
@@ -10286,8 +10338,8 @@
       <c r="B62" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1">
       <c r="A63" s="6" t="s">
@@ -10296,8 +10348,8 @@
       <c r="B63" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1">
       <c r="A64" s="6" t="s">
@@ -10306,8 +10358,8 @@
       <c r="B64" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="30" customHeight="1">
       <c r="A65" s="6" t="s">
@@ -10316,8 +10368,8 @@
       <c r="B65" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="30" customHeight="1">
       <c r="A66" s="6" t="s">
@@ -10326,8 +10378,8 @@
       <c r="B66" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1">
       <c r="A67" s="6" t="s">
@@ -10336,8 +10388,8 @@
       <c r="B67" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="30" customHeight="1">
       <c r="A68" s="7" t="s">
@@ -10346,12 +10398,12 @@
       <c r="B68" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10484,8 +10536,8 @@
       <c r="B17" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10622,12 +10674,12 @@
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
